--- a/Client/Assets/Excel/Global.xlsx
+++ b/Client/Assets/Excel/Global.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCC7611-C204-46F8-9B72-749863CDEA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7494F-93B0-4E60-A62A-B2B6822400FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Factor Name</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -136,6 +136,25 @@
   <si>
     <t>최초 부여 플레이어 행운</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotNum1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotNum2</t>
+  </si>
+  <si>
+    <t>SkillSlotNum3</t>
+  </si>
+  <si>
+    <t>SkillSlotNum4</t>
+  </si>
+  <si>
+    <t>SkillSlotNum5</t>
+  </si>
+  <si>
+    <t>SkillSlotNum6</t>
   </si>
 </sst>
 </file>
@@ -303,7 +322,22 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -613,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,9 +662,10 @@
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="12" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,8 +673,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -658,8 +693,26 @@
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -678,9 +731,32 @@
       <c r="F4" s="4">
         <v>2</v>
       </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G4:L4">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -690,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20F848-A3FA-48AA-90E8-936303A059B5}">
   <dimension ref="B4:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
